--- a/son/content/intermediate_outcomes/compulsory_school_age_(5_to_16_years)/attainment_at_age_11/2.0/IN12-2.0-attainment-at-age-11--gap-by-year--chart-format.xlsx
+++ b/son/content/intermediate_outcomes/compulsory_school_age_(5_to_16_years)/attainment_at_age_11/2.0/IN12-2.0-attainment-at-age-11--gap-by-year--chart-format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Government Equality Hub\SON23\Code\smc-son\son\content\intermediate_outcomes\compulsory_school_age_(5_to_16_years)\attainment_at_age_11\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FF7C58-7E28-4D12-9201-8FCFC94C5EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A18B23-8AD6-4710-8B9F-5B9B17409C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" xr2:uid="{524D0A23-6DD7-4B68-AA24-EB0F4EF2CE29}"/>
+    <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13055" xr2:uid="{524D0A23-6DD7-4B68-AA24-EB0F4EF2CE29}"/>
   </bookViews>
   <sheets>
     <sheet name="IN12-2.0-attainment-at-age-11--" sheetId="1" r:id="rId1"/>
@@ -11952,8 +11952,8 @@
         <v>28</v>
       </c>
       <c r="V156" t="str">
-        <f>MID(F156,1,2) &amp; MID(F156,5,2)</f>
-        <v>2011</v>
+        <f>MID(F156,1,4) &amp; "/" &amp; MID(F156,5,2)</f>
+        <v>2010/11</v>
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.4">
@@ -12021,8 +12021,8 @@
         <v>28</v>
       </c>
       <c r="V157" t="str">
-        <f t="shared" ref="V157:V168" si="3">MID(F157,1,2) &amp; MID(F157,5,2)</f>
-        <v>2012</v>
+        <f t="shared" ref="V157:V168" si="3">MID(F157,1,4) &amp; "/" &amp; MID(F157,5,2)</f>
+        <v>2011/12</v>
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.4">
@@ -12091,7 +12091,7 @@
       </c>
       <c r="V158" t="str">
         <f t="shared" si="3"/>
-        <v>2013</v>
+        <v>2012/13</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.4">
@@ -12160,7 +12160,7 @@
       </c>
       <c r="V159" t="str">
         <f t="shared" si="3"/>
-        <v>2014</v>
+        <v>2013/14</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.4">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="V160" t="str">
         <f t="shared" si="3"/>
-        <v>2015</v>
+        <v>2014/15</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.4">
@@ -12298,7 +12298,7 @@
       </c>
       <c r="V161" t="str">
         <f t="shared" si="3"/>
-        <v>2016</v>
+        <v>2015/16</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.4">
@@ -12367,7 +12367,7 @@
       </c>
       <c r="V162" t="str">
         <f t="shared" si="3"/>
-        <v>2017</v>
+        <v>2016/17</v>
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.4">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="V163" t="str">
         <f t="shared" si="3"/>
-        <v>2018</v>
+        <v>2017/18</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.4">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="V164" t="str">
         <f t="shared" si="3"/>
-        <v>2019</v>
+        <v>2018/19</v>
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.4">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="V165" t="str">
         <f t="shared" si="3"/>
-        <v>2020</v>
+        <v>2019/20</v>
       </c>
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.4">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="V166" t="str">
         <f t="shared" si="3"/>
-        <v>2021</v>
+        <v>2020/21</v>
       </c>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.4">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="V167" t="str">
         <f t="shared" si="3"/>
-        <v>2022</v>
+        <v>2021/22</v>
       </c>
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.4">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="V168" t="str">
         <f t="shared" si="3"/>
-        <v>2023</v>
+        <v>2022/23</v>
       </c>
     </row>
     <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
